--- a/Hatchability_Template.xlsx
+++ b/Hatchability_Template.xlsx
@@ -170,7 +170,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Data'!M1</f>
+              <f>'Data'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -185,7 +185,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Data'!$M$2:$M$101</f>
+              <f>'Data'!$K$2:$K$101</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Data'!N1</f>
+              <f>'Data'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -267,7 +267,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Data'!$N$2:$N$101</f>
+              <f>'Data'!$M$2:$M$101</f>
             </numRef>
           </val>
         </ser>
@@ -316,7 +316,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Percentage</a:t>
+                  <a:t>Egg Composition (%)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -342,7 +342,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Male Ratio %</a:t>
+                  <a:t>Hatchability %</a:t>
                 </a:r>
               </a:p>
             </rich>

--- a/Hatchability_Template.xlsx
+++ b/Hatchability_Template.xlsx
@@ -864,7 +864,7 @@
       </c>
       <c r="N2" s="3" t="n"/>
       <c r="O2">
-        <f>IFERROR(INT((A2-1-VLOOKUP(D2,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A2-2-VLOOKUP(D2,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="N3" s="3" t="n"/>
       <c r="O3">
-        <f>IFERROR(INT((A3-1-VLOOKUP(D3,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A3-2-VLOOKUP(D3,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="N4" s="3" t="n"/>
       <c r="O4">
-        <f>IFERROR(INT((A4-1-VLOOKUP(D4,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A4-2-VLOOKUP(D4,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="N5" s="3" t="n"/>
       <c r="O5">
-        <f>IFERROR(INT((A5-1-VLOOKUP(D5,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A5-2-VLOOKUP(D5,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="N6" s="3" t="n"/>
       <c r="O6">
-        <f>IFERROR(INT((A6-1-VLOOKUP(D6,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A6-2-VLOOKUP(D6,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="N7" s="3" t="n"/>
       <c r="O7">
-        <f>IFERROR(INT((A7-1-VLOOKUP(D7,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A7-2-VLOOKUP(D7,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="N8" s="3" t="n"/>
       <c r="O8">
-        <f>IFERROR(INT((A8-1-VLOOKUP(D8,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A8-2-VLOOKUP(D8,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N9" s="3" t="n"/>
       <c r="O9">
-        <f>IFERROR(INT((A9-1-VLOOKUP(D9,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A9-2-VLOOKUP(D9,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="N10" s="3" t="n"/>
       <c r="O10">
-        <f>IFERROR(INT((A10-1-VLOOKUP(D10,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A10-2-VLOOKUP(D10,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="N11" s="3" t="n"/>
       <c r="O11">
-        <f>IFERROR(INT((A11-1-VLOOKUP(D11,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A11-2-VLOOKUP(D11,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="N12" s="3" t="n"/>
       <c r="O12">
-        <f>IFERROR(INT((A12-1-VLOOKUP(D12,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A12-2-VLOOKUP(D12,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="N13" s="3" t="n"/>
       <c r="O13">
-        <f>IFERROR(INT((A13-1-VLOOKUP(D13,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A13-2-VLOOKUP(D13,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="N14" s="3" t="n"/>
       <c r="O14">
-        <f>IFERROR(INT((A14-1-VLOOKUP(D14,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A14-2-VLOOKUP(D14,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="N15" s="3" t="n"/>
       <c r="O15">
-        <f>IFERROR(INT((A15-1-VLOOKUP(D15,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A15-2-VLOOKUP(D15,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="N16" s="3" t="n"/>
       <c r="O16">
-        <f>IFERROR(INT((A16-1-VLOOKUP(D16,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A16-2-VLOOKUP(D16,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="N17" s="3" t="n"/>
       <c r="O17">
-        <f>IFERROR(INT((A17-1-VLOOKUP(D17,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A17-2-VLOOKUP(D17,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="N18" s="3" t="n"/>
       <c r="O18">
-        <f>IFERROR(INT((A18-1-VLOOKUP(D18,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A18-2-VLOOKUP(D18,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="N19" s="3" t="n"/>
       <c r="O19">
-        <f>IFERROR(INT((A19-1-VLOOKUP(D19,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A19-2-VLOOKUP(D19,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="N20" s="3" t="n"/>
       <c r="O20">
-        <f>IFERROR(INT((A20-1-VLOOKUP(D20,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A20-2-VLOOKUP(D20,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="N21" s="3" t="n"/>
       <c r="O21">
-        <f>IFERROR(INT((A21-1-VLOOKUP(D21,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A21-2-VLOOKUP(D21,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="N22" s="3" t="n"/>
       <c r="O22">
-        <f>IFERROR(INT((A22-1-VLOOKUP(D22,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A22-2-VLOOKUP(D22,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="N23" s="3" t="n"/>
       <c r="O23">
-        <f>IFERROR(INT((A23-1-VLOOKUP(D23,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A23-2-VLOOKUP(D23,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N24" s="3" t="n"/>
       <c r="O24">
-        <f>IFERROR(INT((A24-1-VLOOKUP(D24,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A24-2-VLOOKUP(D24,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="N25" s="3" t="n"/>
       <c r="O25">
-        <f>IFERROR(INT((A25-1-VLOOKUP(D25,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A25-2-VLOOKUP(D25,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="N26" s="3" t="n"/>
       <c r="O26">
-        <f>IFERROR(INT((A26-1-VLOOKUP(D26,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A26-2-VLOOKUP(D26,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="N27" s="3" t="n"/>
       <c r="O27">
-        <f>IFERROR(INT((A27-1-VLOOKUP(D27,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A27-2-VLOOKUP(D27,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="N28" s="3" t="n"/>
       <c r="O28">
-        <f>IFERROR(INT((A28-1-VLOOKUP(D28,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A28-2-VLOOKUP(D28,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="N29" s="3" t="n"/>
       <c r="O29">
-        <f>IFERROR(INT((A29-1-VLOOKUP(D29,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A29-2-VLOOKUP(D29,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N30" s="3" t="n"/>
       <c r="O30">
-        <f>IFERROR(INT((A30-1-VLOOKUP(D30,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A30-2-VLOOKUP(D30,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="N31" s="3" t="n"/>
       <c r="O31">
-        <f>IFERROR(INT((A31-1-VLOOKUP(D31,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A31-2-VLOOKUP(D31,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="N32" s="3" t="n"/>
       <c r="O32">
-        <f>IFERROR(INT((A32-1-VLOOKUP(D32,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A32-2-VLOOKUP(D32,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="N33" s="3" t="n"/>
       <c r="O33">
-        <f>IFERROR(INT((A33-1-VLOOKUP(D33,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A33-2-VLOOKUP(D33,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="N34" s="3" t="n"/>
       <c r="O34">
-        <f>IFERROR(INT((A34-1-VLOOKUP(D34,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A34-2-VLOOKUP(D34,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="N35" s="3" t="n"/>
       <c r="O35">
-        <f>IFERROR(INT((A35-1-VLOOKUP(D35,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A35-2-VLOOKUP(D35,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="N36" s="3" t="n"/>
       <c r="O36">
-        <f>IFERROR(INT((A36-1-VLOOKUP(D36,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A36-2-VLOOKUP(D36,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="N37" s="3" t="n"/>
       <c r="O37">
-        <f>IFERROR(INT((A37-1-VLOOKUP(D37,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A37-2-VLOOKUP(D37,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="N38" s="3" t="n"/>
       <c r="O38">
-        <f>IFERROR(INT((A38-1-VLOOKUP(D38,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A38-2-VLOOKUP(D38,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="N39" s="3" t="n"/>
       <c r="O39">
-        <f>IFERROR(INT((A39-1-VLOOKUP(D39,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A39-2-VLOOKUP(D39,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="N40" s="3" t="n"/>
       <c r="O40">
-        <f>IFERROR(INT((A40-1-VLOOKUP(D40,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A40-2-VLOOKUP(D40,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="N41" s="3" t="n"/>
       <c r="O41">
-        <f>IFERROR(INT((A41-1-VLOOKUP(D41,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A41-2-VLOOKUP(D41,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="N42" s="3" t="n"/>
       <c r="O42">
-        <f>IFERROR(INT((A42-1-VLOOKUP(D42,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A42-2-VLOOKUP(D42,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="N43" s="3" t="n"/>
       <c r="O43">
-        <f>IFERROR(INT((A43-1-VLOOKUP(D43,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A43-2-VLOOKUP(D43,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N44" s="3" t="n"/>
       <c r="O44">
-        <f>IFERROR(INT((A44-1-VLOOKUP(D44,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A44-2-VLOOKUP(D44,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="N45" s="3" t="n"/>
       <c r="O45">
-        <f>IFERROR(INT((A45-1-VLOOKUP(D45,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A45-2-VLOOKUP(D45,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="N46" s="3" t="n"/>
       <c r="O46">
-        <f>IFERROR(INT((A46-1-VLOOKUP(D46,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A46-2-VLOOKUP(D46,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="N47" s="3" t="n"/>
       <c r="O47">
-        <f>IFERROR(INT((A47-1-VLOOKUP(D47,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A47-2-VLOOKUP(D47,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N48" s="3" t="n"/>
       <c r="O48">
-        <f>IFERROR(INT((A48-1-VLOOKUP(D48,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A48-2-VLOOKUP(D48,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N49" s="3" t="n"/>
       <c r="O49">
-        <f>IFERROR(INT((A49-1-VLOOKUP(D49,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A49-2-VLOOKUP(D49,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="N50" s="3" t="n"/>
       <c r="O50">
-        <f>IFERROR(INT((A50-1-VLOOKUP(D50,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A50-2-VLOOKUP(D50,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="N51" s="3" t="n"/>
       <c r="O51">
-        <f>IFERROR(INT((A51-1-VLOOKUP(D51,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A51-2-VLOOKUP(D51,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="N52" s="3" t="n"/>
       <c r="O52">
-        <f>IFERROR(INT((A52-1-VLOOKUP(D52,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A52-2-VLOOKUP(D52,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="N53" s="3" t="n"/>
       <c r="O53">
-        <f>IFERROR(INT((A53-1-VLOOKUP(D53,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A53-2-VLOOKUP(D53,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="N54" s="3" t="n"/>
       <c r="O54">
-        <f>IFERROR(INT((A54-1-VLOOKUP(D54,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A54-2-VLOOKUP(D54,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="N55" s="3" t="n"/>
       <c r="O55">
-        <f>IFERROR(INT((A55-1-VLOOKUP(D55,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A55-2-VLOOKUP(D55,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="N56" s="3" t="n"/>
       <c r="O56">
-        <f>IFERROR(INT((A56-1-VLOOKUP(D56,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A56-2-VLOOKUP(D56,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="N57" s="3" t="n"/>
       <c r="O57">
-        <f>IFERROR(INT((A57-1-VLOOKUP(D57,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A57-2-VLOOKUP(D57,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="N58" s="3" t="n"/>
       <c r="O58">
-        <f>IFERROR(INT((A58-1-VLOOKUP(D58,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A58-2-VLOOKUP(D58,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="N59" s="3" t="n"/>
       <c r="O59">
-        <f>IFERROR(INT((A59-1-VLOOKUP(D59,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A59-2-VLOOKUP(D59,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="N60" s="3" t="n"/>
       <c r="O60">
-        <f>IFERROR(INT((A60-1-VLOOKUP(D60,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A60-2-VLOOKUP(D60,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="N61" s="3" t="n"/>
       <c r="O61">
-        <f>IFERROR(INT((A61-1-VLOOKUP(D61,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A61-2-VLOOKUP(D61,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="N62" s="3" t="n"/>
       <c r="O62">
-        <f>IFERROR(INT((A62-1-VLOOKUP(D62,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A62-2-VLOOKUP(D62,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="N63" s="3" t="n"/>
       <c r="O63">
-        <f>IFERROR(INT((A63-1-VLOOKUP(D63,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A63-2-VLOOKUP(D63,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="N64" s="3" t="n"/>
       <c r="O64">
-        <f>IFERROR(INT((A64-1-VLOOKUP(D64,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A64-2-VLOOKUP(D64,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="N65" s="3" t="n"/>
       <c r="O65">
-        <f>IFERROR(INT((A65-1-VLOOKUP(D65,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A65-2-VLOOKUP(D65,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="N66" s="3" t="n"/>
       <c r="O66">
-        <f>IFERROR(INT((A66-1-VLOOKUP(D66,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A66-2-VLOOKUP(D66,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="N67" s="3" t="n"/>
       <c r="O67">
-        <f>IFERROR(INT((A67-1-VLOOKUP(D67,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A67-2-VLOOKUP(D67,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="N68" s="3" t="n"/>
       <c r="O68">
-        <f>IFERROR(INT((A68-1-VLOOKUP(D68,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A68-2-VLOOKUP(D68,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="N69" s="3" t="n"/>
       <c r="O69">
-        <f>IFERROR(INT((A69-1-VLOOKUP(D69,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A69-2-VLOOKUP(D69,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="N70" s="3" t="n"/>
       <c r="O70">
-        <f>IFERROR(INT((A70-1-VLOOKUP(D70,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A70-2-VLOOKUP(D70,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="N71" s="3" t="n"/>
       <c r="O71">
-        <f>IFERROR(INT((A71-1-VLOOKUP(D71,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A71-2-VLOOKUP(D71,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="N72" s="3" t="n"/>
       <c r="O72">
-        <f>IFERROR(INT((A72-1-VLOOKUP(D72,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A72-2-VLOOKUP(D72,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="N73" s="3" t="n"/>
       <c r="O73">
-        <f>IFERROR(INT((A73-1-VLOOKUP(D73,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A73-2-VLOOKUP(D73,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="N74" s="3" t="n"/>
       <c r="O74">
-        <f>IFERROR(INT((A74-1-VLOOKUP(D74,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A74-2-VLOOKUP(D74,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="N75" s="3" t="n"/>
       <c r="O75">
-        <f>IFERROR(INT((A75-1-VLOOKUP(D75,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A75-2-VLOOKUP(D75,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="N76" s="3" t="n"/>
       <c r="O76">
-        <f>IFERROR(INT((A76-1-VLOOKUP(D76,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A76-2-VLOOKUP(D76,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="N77" s="3" t="n"/>
       <c r="O77">
-        <f>IFERROR(INT((A77-1-VLOOKUP(D77,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A77-2-VLOOKUP(D77,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="N78" s="3" t="n"/>
       <c r="O78">
-        <f>IFERROR(INT((A78-1-VLOOKUP(D78,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A78-2-VLOOKUP(D78,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="N79" s="3" t="n"/>
       <c r="O79">
-        <f>IFERROR(INT((A79-1-VLOOKUP(D79,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A79-2-VLOOKUP(D79,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="N80" s="3" t="n"/>
       <c r="O80">
-        <f>IFERROR(INT((A80-1-VLOOKUP(D80,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A80-2-VLOOKUP(D80,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="N81" s="3" t="n"/>
       <c r="O81">
-        <f>IFERROR(INT((A81-1-VLOOKUP(D81,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A81-2-VLOOKUP(D81,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N82" s="3" t="n"/>
       <c r="O82">
-        <f>IFERROR(INT((A82-1-VLOOKUP(D82,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A82-2-VLOOKUP(D82,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="N83" s="3" t="n"/>
       <c r="O83">
-        <f>IFERROR(INT((A83-1-VLOOKUP(D83,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A83-2-VLOOKUP(D83,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="N84" s="3" t="n"/>
       <c r="O84">
-        <f>IFERROR(INT((A84-1-VLOOKUP(D84,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A84-2-VLOOKUP(D84,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="N85" s="3" t="n"/>
       <c r="O85">
-        <f>IFERROR(INT((A85-1-VLOOKUP(D85,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A85-2-VLOOKUP(D85,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="N86" s="3" t="n"/>
       <c r="O86">
-        <f>IFERROR(INT((A86-1-VLOOKUP(D86,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A86-2-VLOOKUP(D86,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N87" s="3" t="n"/>
       <c r="O87">
-        <f>IFERROR(INT((A87-1-VLOOKUP(D87,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A87-2-VLOOKUP(D87,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="N88" s="3" t="n"/>
       <c r="O88">
-        <f>IFERROR(INT((A88-1-VLOOKUP(D88,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A88-2-VLOOKUP(D88,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="N89" s="3" t="n"/>
       <c r="O89">
-        <f>IFERROR(INT((A89-1-VLOOKUP(D89,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A89-2-VLOOKUP(D89,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="N90" s="3" t="n"/>
       <c r="O90">
-        <f>IFERROR(INT((A90-1-VLOOKUP(D90,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A90-2-VLOOKUP(D90,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="N91" s="3" t="n"/>
       <c r="O91">
-        <f>IFERROR(INT((A91-1-VLOOKUP(D91,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A91-2-VLOOKUP(D91,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="N92" s="3" t="n"/>
       <c r="O92">
-        <f>IFERROR(INT((A92-1-VLOOKUP(D92,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A92-2-VLOOKUP(D92,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="N93" s="3" t="n"/>
       <c r="O93">
-        <f>IFERROR(INT((A93-1-VLOOKUP(D93,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A93-2-VLOOKUP(D93,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="N94" s="3" t="n"/>
       <c r="O94">
-        <f>IFERROR(INT((A94-1-VLOOKUP(D94,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A94-2-VLOOKUP(D94,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="N95" s="3" t="n"/>
       <c r="O95">
-        <f>IFERROR(INT((A95-1-VLOOKUP(D95,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A95-2-VLOOKUP(D95,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="N96" s="3" t="n"/>
       <c r="O96">
-        <f>IFERROR(INT((A96-1-VLOOKUP(D96,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A96-2-VLOOKUP(D96,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="N97" s="3" t="n"/>
       <c r="O97">
-        <f>IFERROR(INT((A97-1-VLOOKUP(D97,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A97-2-VLOOKUP(D97,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="N98" s="3" t="n"/>
       <c r="O98">
-        <f>IFERROR(INT((A98-1-VLOOKUP(D98,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A98-2-VLOOKUP(D98,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="N99" s="3" t="n"/>
       <c r="O99">
-        <f>IFERROR(INT((A99-1-VLOOKUP(D99,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A99-2-VLOOKUP(D99,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="N100" s="3" t="n"/>
       <c r="O100">
-        <f>IFERROR(INT((A100-1-VLOOKUP(D100,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A100-2-VLOOKUP(D100,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="N101" s="3" t="n"/>
       <c r="O101">
-        <f>IFERROR(INT((A101-1-VLOOKUP(D101,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A101-2-VLOOKUP(D101,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="N102" s="3" t="n"/>
       <c r="O102">
-        <f>IFERROR(INT((A102-1-VLOOKUP(D102,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A102-2-VLOOKUP(D102,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="N103" s="3" t="n"/>
       <c r="O103">
-        <f>IFERROR(INT((A103-1-VLOOKUP(D103,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A103-2-VLOOKUP(D103,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="N104" s="3" t="n"/>
       <c r="O104">
-        <f>IFERROR(INT((A104-1-VLOOKUP(D104,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A104-2-VLOOKUP(D104,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="N105" s="3" t="n"/>
       <c r="O105">
-        <f>IFERROR(INT((A105-1-VLOOKUP(D105,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A105-2-VLOOKUP(D105,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="N106" s="3" t="n"/>
       <c r="O106">
-        <f>IFERROR(INT((A106-1-VLOOKUP(D106,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A106-2-VLOOKUP(D106,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="N107" s="3" t="n"/>
       <c r="O107">
-        <f>IFERROR(INT((A107-1-VLOOKUP(D107,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A107-2-VLOOKUP(D107,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="N108" s="3" t="n"/>
       <c r="O108">
-        <f>IFERROR(INT((A108-1-VLOOKUP(D108,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A108-2-VLOOKUP(D108,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="N109" s="3" t="n"/>
       <c r="O109">
-        <f>IFERROR(INT((A109-1-VLOOKUP(D109,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A109-2-VLOOKUP(D109,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="N110" s="3" t="n"/>
       <c r="O110">
-        <f>IFERROR(INT((A110-1-VLOOKUP(D110,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A110-2-VLOOKUP(D110,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="N111" s="3" t="n"/>
       <c r="O111">
-        <f>IFERROR(INT((A111-1-VLOOKUP(D111,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A111-2-VLOOKUP(D111,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="N112" s="3" t="n"/>
       <c r="O112">
-        <f>IFERROR(INT((A112-1-VLOOKUP(D112,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A112-2-VLOOKUP(D112,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="N113" s="3" t="n"/>
       <c r="O113">
-        <f>IFERROR(INT((A113-1-VLOOKUP(D113,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A113-2-VLOOKUP(D113,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="N114" s="3" t="n"/>
       <c r="O114">
-        <f>IFERROR(INT((A114-1-VLOOKUP(D114,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A114-2-VLOOKUP(D114,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="N115" s="3" t="n"/>
       <c r="O115">
-        <f>IFERROR(INT((A115-1-VLOOKUP(D115,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A115-2-VLOOKUP(D115,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="N116" s="3" t="n"/>
       <c r="O116">
-        <f>IFERROR(INT((A116-1-VLOOKUP(D116,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A116-2-VLOOKUP(D116,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="N117" s="3" t="n"/>
       <c r="O117">
-        <f>IFERROR(INT((A117-1-VLOOKUP(D117,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A117-2-VLOOKUP(D117,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="N118" s="3" t="n"/>
       <c r="O118">
-        <f>IFERROR(INT((A118-1-VLOOKUP(D118,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A118-2-VLOOKUP(D118,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="N119" s="3" t="n"/>
       <c r="O119">
-        <f>IFERROR(INT((A119-1-VLOOKUP(D119,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A119-2-VLOOKUP(D119,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="N120" s="3" t="n"/>
       <c r="O120">
-        <f>IFERROR(INT((A120-1-VLOOKUP(D120,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A120-2-VLOOKUP(D120,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="N121" s="3" t="n"/>
       <c r="O121">
-        <f>IFERROR(INT((A121-1-VLOOKUP(D121,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A121-2-VLOOKUP(D121,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="N122" s="3" t="n"/>
       <c r="O122">
-        <f>IFERROR(INT((A122-1-VLOOKUP(D122,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A122-2-VLOOKUP(D122,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="N123" s="3" t="n"/>
       <c r="O123">
-        <f>IFERROR(INT((A123-1-VLOOKUP(D123,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A123-2-VLOOKUP(D123,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="N124" s="3" t="n"/>
       <c r="O124">
-        <f>IFERROR(INT((A124-1-VLOOKUP(D124,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A124-2-VLOOKUP(D124,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="N125" s="3" t="n"/>
       <c r="O125">
-        <f>IFERROR(INT((A125-1-VLOOKUP(D125,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A125-2-VLOOKUP(D125,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="N126" s="3" t="n"/>
       <c r="O126">
-        <f>IFERROR(INT((A126-1-VLOOKUP(D126,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A126-2-VLOOKUP(D126,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="N127" s="3" t="n"/>
       <c r="O127">
-        <f>IFERROR(INT((A127-1-VLOOKUP(D127,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A127-2-VLOOKUP(D127,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="N128" s="3" t="n"/>
       <c r="O128">
-        <f>IFERROR(INT((A128-1-VLOOKUP(D128,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A128-2-VLOOKUP(D128,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="N129" s="3" t="n"/>
       <c r="O129">
-        <f>IFERROR(INT((A129-1-VLOOKUP(D129,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A129-2-VLOOKUP(D129,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="N130" s="3" t="n"/>
       <c r="O130">
-        <f>IFERROR(INT((A130-1-VLOOKUP(D130,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A130-2-VLOOKUP(D130,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="N131" s="3" t="n"/>
       <c r="O131">
-        <f>IFERROR(INT((A131-1-VLOOKUP(D131,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A131-2-VLOOKUP(D131,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="N132" s="3" t="n"/>
       <c r="O132">
-        <f>IFERROR(INT((A132-1-VLOOKUP(D132,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A132-2-VLOOKUP(D132,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="N133" s="3" t="n"/>
       <c r="O133">
-        <f>IFERROR(INT((A133-1-VLOOKUP(D133,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A133-2-VLOOKUP(D133,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="N134" s="3" t="n"/>
       <c r="O134">
-        <f>IFERROR(INT((A134-1-VLOOKUP(D134,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A134-2-VLOOKUP(D134,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="N135" s="3" t="n"/>
       <c r="O135">
-        <f>IFERROR(INT((A135-1-VLOOKUP(D135,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A135-2-VLOOKUP(D135,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="N136" s="3" t="n"/>
       <c r="O136">
-        <f>IFERROR(INT((A136-1-VLOOKUP(D136,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A136-2-VLOOKUP(D136,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="N137" s="3" t="n"/>
       <c r="O137">
-        <f>IFERROR(INT((A137-1-VLOOKUP(D137,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A137-2-VLOOKUP(D137,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="N138" s="3" t="n"/>
       <c r="O138">
-        <f>IFERROR(INT((A138-1-VLOOKUP(D138,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A138-2-VLOOKUP(D138,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="N139" s="3" t="n"/>
       <c r="O139">
-        <f>IFERROR(INT((A139-1-VLOOKUP(D139,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A139-2-VLOOKUP(D139,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="N140" s="3" t="n"/>
       <c r="O140">
-        <f>IFERROR(INT((A140-1-VLOOKUP(D140,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A140-2-VLOOKUP(D140,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="N141" s="3" t="n"/>
       <c r="O141">
-        <f>IFERROR(INT((A141-1-VLOOKUP(D141,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A141-2-VLOOKUP(D141,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="N142" s="3" t="n"/>
       <c r="O142">
-        <f>IFERROR(INT((A142-1-VLOOKUP(D142,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A142-2-VLOOKUP(D142,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="N143" s="3" t="n"/>
       <c r="O143">
-        <f>IFERROR(INT((A143-1-VLOOKUP(D143,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A143-2-VLOOKUP(D143,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="N144" s="3" t="n"/>
       <c r="O144">
-        <f>IFERROR(INT((A144-1-VLOOKUP(D144,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A144-2-VLOOKUP(D144,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="N145" s="3" t="n"/>
       <c r="O145">
-        <f>IFERROR(INT((A145-1-VLOOKUP(D145,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A145-2-VLOOKUP(D145,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="N146" s="3" t="n"/>
       <c r="O146">
-        <f>IFERROR(INT((A146-1-VLOOKUP(D146,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A146-2-VLOOKUP(D146,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="N147" s="3" t="n"/>
       <c r="O147">
-        <f>IFERROR(INT((A147-1-VLOOKUP(D147,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A147-2-VLOOKUP(D147,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="N148" s="3" t="n"/>
       <c r="O148">
-        <f>IFERROR(INT((A148-1-VLOOKUP(D148,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A148-2-VLOOKUP(D148,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="N149" s="3" t="n"/>
       <c r="O149">
-        <f>IFERROR(INT((A149-1-VLOOKUP(D149,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A149-2-VLOOKUP(D149,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="N150" s="3" t="n"/>
       <c r="O150">
-        <f>IFERROR(INT((A150-1-VLOOKUP(D150,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A150-2-VLOOKUP(D150,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="N151" s="3" t="n"/>
       <c r="O151">
-        <f>IFERROR(INT((A151-1-VLOOKUP(D151,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A151-2-VLOOKUP(D151,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="N152" s="3" t="n"/>
       <c r="O152">
-        <f>IFERROR(INT((A152-1-VLOOKUP(D152,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A152-2-VLOOKUP(D152,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="N153" s="3" t="n"/>
       <c r="O153">
-        <f>IFERROR(INT((A153-1-VLOOKUP(D153,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A153-2-VLOOKUP(D153,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="N154" s="3" t="n"/>
       <c r="O154">
-        <f>IFERROR(INT((A154-1-VLOOKUP(D154,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A154-2-VLOOKUP(D154,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="N155" s="3" t="n"/>
       <c r="O155">
-        <f>IFERROR(INT((A155-1-VLOOKUP(D155,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A155-2-VLOOKUP(D155,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="N156" s="3" t="n"/>
       <c r="O156">
-        <f>IFERROR(INT((A156-1-VLOOKUP(D156,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A156-2-VLOOKUP(D156,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="N157" s="3" t="n"/>
       <c r="O157">
-        <f>IFERROR(INT((A157-1-VLOOKUP(D157,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A157-2-VLOOKUP(D157,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="N158" s="3" t="n"/>
       <c r="O158">
-        <f>IFERROR(INT((A158-1-VLOOKUP(D158,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A158-2-VLOOKUP(D158,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="N159" s="3" t="n"/>
       <c r="O159">
-        <f>IFERROR(INT((A159-1-VLOOKUP(D159,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A159-2-VLOOKUP(D159,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="N160" s="3" t="n"/>
       <c r="O160">
-        <f>IFERROR(INT((A160-1-VLOOKUP(D160,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A160-2-VLOOKUP(D160,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="N161" s="3" t="n"/>
       <c r="O161">
-        <f>IFERROR(INT((A161-1-VLOOKUP(D161,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A161-2-VLOOKUP(D161,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="N162" s="3" t="n"/>
       <c r="O162">
-        <f>IFERROR(INT((A162-1-VLOOKUP(D162,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A162-2-VLOOKUP(D162,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="N163" s="3" t="n"/>
       <c r="O163">
-        <f>IFERROR(INT((A163-1-VLOOKUP(D163,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A163-2-VLOOKUP(D163,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="N164" s="3" t="n"/>
       <c r="O164">
-        <f>IFERROR(INT((A164-1-VLOOKUP(D164,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A164-2-VLOOKUP(D164,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N165" s="3" t="n"/>
       <c r="O165">
-        <f>IFERROR(INT((A165-1-VLOOKUP(D165,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A165-2-VLOOKUP(D165,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="N166" s="3" t="n"/>
       <c r="O166">
-        <f>IFERROR(INT((A166-1-VLOOKUP(D166,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A166-2-VLOOKUP(D166,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="N167" s="3" t="n"/>
       <c r="O167">
-        <f>IFERROR(INT((A167-1-VLOOKUP(D167,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A167-2-VLOOKUP(D167,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="N168" s="3" t="n"/>
       <c r="O168">
-        <f>IFERROR(INT((A168-1-VLOOKUP(D168,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A168-2-VLOOKUP(D168,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="N169" s="3" t="n"/>
       <c r="O169">
-        <f>IFERROR(INT((A169-1-VLOOKUP(D169,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A169-2-VLOOKUP(D169,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="N170" s="3" t="n"/>
       <c r="O170">
-        <f>IFERROR(INT((A170-1-VLOOKUP(D170,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A170-2-VLOOKUP(D170,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="N171" s="3" t="n"/>
       <c r="O171">
-        <f>IFERROR(INT((A171-1-VLOOKUP(D171,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A171-2-VLOOKUP(D171,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="N172" s="3" t="n"/>
       <c r="O172">
-        <f>IFERROR(INT((A172-1-VLOOKUP(D172,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A172-2-VLOOKUP(D172,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="N173" s="3" t="n"/>
       <c r="O173">
-        <f>IFERROR(INT((A173-1-VLOOKUP(D173,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A173-2-VLOOKUP(D173,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="N174" s="3" t="n"/>
       <c r="O174">
-        <f>IFERROR(INT((A174-1-VLOOKUP(D174,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A174-2-VLOOKUP(D174,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N175" s="3" t="n"/>
       <c r="O175">
-        <f>IFERROR(INT((A175-1-VLOOKUP(D175,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A175-2-VLOOKUP(D175,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="N176" s="3" t="n"/>
       <c r="O176">
-        <f>IFERROR(INT((A176-1-VLOOKUP(D176,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A176-2-VLOOKUP(D176,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="N177" s="3" t="n"/>
       <c r="O177">
-        <f>IFERROR(INT((A177-1-VLOOKUP(D177,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A177-2-VLOOKUP(D177,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="N178" s="3" t="n"/>
       <c r="O178">
-        <f>IFERROR(INT((A178-1-VLOOKUP(D178,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A178-2-VLOOKUP(D178,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="N179" s="3" t="n"/>
       <c r="O179">
-        <f>IFERROR(INT((A179-1-VLOOKUP(D179,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A179-2-VLOOKUP(D179,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="N180" s="3" t="n"/>
       <c r="O180">
-        <f>IFERROR(INT((A180-1-VLOOKUP(D180,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A180-2-VLOOKUP(D180,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="N181" s="3" t="n"/>
       <c r="O181">
-        <f>IFERROR(INT((A181-1-VLOOKUP(D181,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A181-2-VLOOKUP(D181,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="N182" s="3" t="n"/>
       <c r="O182">
-        <f>IFERROR(INT((A182-1-VLOOKUP(D182,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A182-2-VLOOKUP(D182,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="N183" s="3" t="n"/>
       <c r="O183">
-        <f>IFERROR(INT((A183-1-VLOOKUP(D183,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A183-2-VLOOKUP(D183,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="N184" s="3" t="n"/>
       <c r="O184">
-        <f>IFERROR(INT((A184-1-VLOOKUP(D184,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A184-2-VLOOKUP(D184,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="N185" s="3" t="n"/>
       <c r="O185">
-        <f>IFERROR(INT((A185-1-VLOOKUP(D185,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A185-2-VLOOKUP(D185,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="N186" s="3" t="n"/>
       <c r="O186">
-        <f>IFERROR(INT((A186-1-VLOOKUP(D186,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A186-2-VLOOKUP(D186,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="N187" s="3" t="n"/>
       <c r="O187">
-        <f>IFERROR(INT((A187-1-VLOOKUP(D187,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A187-2-VLOOKUP(D187,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="N188" s="3" t="n"/>
       <c r="O188">
-        <f>IFERROR(INT((A188-1-VLOOKUP(D188,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A188-2-VLOOKUP(D188,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="N189" s="3" t="n"/>
       <c r="O189">
-        <f>IFERROR(INT((A189-1-VLOOKUP(D189,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A189-2-VLOOKUP(D189,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="N190" s="3" t="n"/>
       <c r="O190">
-        <f>IFERROR(INT((A190-1-VLOOKUP(D190,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A190-2-VLOOKUP(D190,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="N191" s="3" t="n"/>
       <c r="O191">
-        <f>IFERROR(INT((A191-1-VLOOKUP(D191,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A191-2-VLOOKUP(D191,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="N192" s="3" t="n"/>
       <c r="O192">
-        <f>IFERROR(INT((A192-1-VLOOKUP(D192,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A192-2-VLOOKUP(D192,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="N193" s="3" t="n"/>
       <c r="O193">
-        <f>IFERROR(INT((A193-1-VLOOKUP(D193,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A193-2-VLOOKUP(D193,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="N194" s="3" t="n"/>
       <c r="O194">
-        <f>IFERROR(INT((A194-1-VLOOKUP(D194,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A194-2-VLOOKUP(D194,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="N195" s="3" t="n"/>
       <c r="O195">
-        <f>IFERROR(INT((A195-1-VLOOKUP(D195,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A195-2-VLOOKUP(D195,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="N196" s="3" t="n"/>
       <c r="O196">
-        <f>IFERROR(INT((A196-1-VLOOKUP(D196,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A196-2-VLOOKUP(D196,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="N197" s="3" t="n"/>
       <c r="O197">
-        <f>IFERROR(INT((A197-1-VLOOKUP(D197,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A197-2-VLOOKUP(D197,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="N198" s="3" t="n"/>
       <c r="O198">
-        <f>IFERROR(INT((A198-1-VLOOKUP(D198,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A198-2-VLOOKUP(D198,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="N199" s="3" t="n"/>
       <c r="O199">
-        <f>IFERROR(INT((A199-1-VLOOKUP(D199,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A199-2-VLOOKUP(D199,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="N200" s="3" t="n"/>
       <c r="O200">
-        <f>IFERROR(INT((A200-1-VLOOKUP(D200,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A200-2-VLOOKUP(D200,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="N201" s="3" t="n"/>
       <c r="O201">
-        <f>IFERROR(INT((A201-1-VLOOKUP(D201,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A201-2-VLOOKUP(D201,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="N202" s="3" t="n"/>
       <c r="O202">
-        <f>IFERROR(INT((A202-1-VLOOKUP(D202,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A202-2-VLOOKUP(D202,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="N203" s="3" t="n"/>
       <c r="O203">
-        <f>IFERROR(INT((A203-1-VLOOKUP(D203,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A203-2-VLOOKUP(D203,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="N204" s="3" t="n"/>
       <c r="O204">
-        <f>IFERROR(INT((A204-1-VLOOKUP(D204,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A204-2-VLOOKUP(D204,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="N205" s="3" t="n"/>
       <c r="O205">
-        <f>IFERROR(INT((A205-1-VLOOKUP(D205,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A205-2-VLOOKUP(D205,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="N206" s="3" t="n"/>
       <c r="O206">
-        <f>IFERROR(INT((A206-1-VLOOKUP(D206,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A206-2-VLOOKUP(D206,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="N207" s="3" t="n"/>
       <c r="O207">
-        <f>IFERROR(INT((A207-1-VLOOKUP(D207,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A207-2-VLOOKUP(D207,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="N208" s="3" t="n"/>
       <c r="O208">
-        <f>IFERROR(INT((A208-1-VLOOKUP(D208,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A208-2-VLOOKUP(D208,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="N209" s="3" t="n"/>
       <c r="O209">
-        <f>IFERROR(INT((A209-1-VLOOKUP(D209,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A209-2-VLOOKUP(D209,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="N210" s="3" t="n"/>
       <c r="O210">
-        <f>IFERROR(INT((A210-1-VLOOKUP(D210,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A210-2-VLOOKUP(D210,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="N211" s="3" t="n"/>
       <c r="O211">
-        <f>IFERROR(INT((A211-1-VLOOKUP(D211,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A211-2-VLOOKUP(D211,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="N212" s="3" t="n"/>
       <c r="O212">
-        <f>IFERROR(INT((A212-1-VLOOKUP(D212,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A212-2-VLOOKUP(D212,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="N213" s="3" t="n"/>
       <c r="O213">
-        <f>IFERROR(INT((A213-1-VLOOKUP(D213,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A213-2-VLOOKUP(D213,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N214" s="3" t="n"/>
       <c r="O214">
-        <f>IFERROR(INT((A214-1-VLOOKUP(D214,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A214-2-VLOOKUP(D214,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="N215" s="3" t="n"/>
       <c r="O215">
-        <f>IFERROR(INT((A215-1-VLOOKUP(D215,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A215-2-VLOOKUP(D215,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="N216" s="3" t="n"/>
       <c r="O216">
-        <f>IFERROR(INT((A216-1-VLOOKUP(D216,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A216-2-VLOOKUP(D216,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="N217" s="3" t="n"/>
       <c r="O217">
-        <f>IFERROR(INT((A217-1-VLOOKUP(D217,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A217-2-VLOOKUP(D217,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="N218" s="3" t="n"/>
       <c r="O218">
-        <f>IFERROR(INT((A218-1-VLOOKUP(D218,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A218-2-VLOOKUP(D218,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="N219" s="3" t="n"/>
       <c r="O219">
-        <f>IFERROR(INT((A219-1-VLOOKUP(D219,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A219-2-VLOOKUP(D219,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="N220" s="3" t="n"/>
       <c r="O220">
-        <f>IFERROR(INT((A220-1-VLOOKUP(D220,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A220-2-VLOOKUP(D220,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="N221" s="3" t="n"/>
       <c r="O221">
-        <f>IFERROR(INT((A221-1-VLOOKUP(D221,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A221-2-VLOOKUP(D221,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="N222" s="3" t="n"/>
       <c r="O222">
-        <f>IFERROR(INT((A222-1-VLOOKUP(D222,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A222-2-VLOOKUP(D222,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="N223" s="3" t="n"/>
       <c r="O223">
-        <f>IFERROR(INT((A223-1-VLOOKUP(D223,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A223-2-VLOOKUP(D223,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="N224" s="3" t="n"/>
       <c r="O224">
-        <f>IFERROR(INT((A224-1-VLOOKUP(D224,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A224-2-VLOOKUP(D224,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="N225" s="3" t="n"/>
       <c r="O225">
-        <f>IFERROR(INT((A225-1-VLOOKUP(D225,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A225-2-VLOOKUP(D225,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="N226" s="3" t="n"/>
       <c r="O226">
-        <f>IFERROR(INT((A226-1-VLOOKUP(D226,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A226-2-VLOOKUP(D226,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="N227" s="3" t="n"/>
       <c r="O227">
-        <f>IFERROR(INT((A227-1-VLOOKUP(D227,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A227-2-VLOOKUP(D227,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="N228" s="3" t="n"/>
       <c r="O228">
-        <f>IFERROR(INT((A228-1-VLOOKUP(D228,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A228-2-VLOOKUP(D228,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="N229" s="3" t="n"/>
       <c r="O229">
-        <f>IFERROR(INT((A229-1-VLOOKUP(D229,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A229-2-VLOOKUP(D229,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="N230" s="3" t="n"/>
       <c r="O230">
-        <f>IFERROR(INT((A230-1-VLOOKUP(D230,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A230-2-VLOOKUP(D230,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="N231" s="3" t="n"/>
       <c r="O231">
-        <f>IFERROR(INT((A231-1-VLOOKUP(D231,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A231-2-VLOOKUP(D231,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="N232" s="3" t="n"/>
       <c r="O232">
-        <f>IFERROR(INT((A232-1-VLOOKUP(D232,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A232-2-VLOOKUP(D232,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="N233" s="3" t="n"/>
       <c r="O233">
-        <f>IFERROR(INT((A233-1-VLOOKUP(D233,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A233-2-VLOOKUP(D233,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="N234" s="3" t="n"/>
       <c r="O234">
-        <f>IFERROR(INT((A234-1-VLOOKUP(D234,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A234-2-VLOOKUP(D234,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="N235" s="3" t="n"/>
       <c r="O235">
-        <f>IFERROR(INT((A235-1-VLOOKUP(D235,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A235-2-VLOOKUP(D235,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="N236" s="3" t="n"/>
       <c r="O236">
-        <f>IFERROR(INT((A236-1-VLOOKUP(D236,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A236-2-VLOOKUP(D236,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="N237" s="3" t="n"/>
       <c r="O237">
-        <f>IFERROR(INT((A237-1-VLOOKUP(D237,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A237-2-VLOOKUP(D237,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="N238" s="3" t="n"/>
       <c r="O238">
-        <f>IFERROR(INT((A238-1-VLOOKUP(D238,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A238-2-VLOOKUP(D238,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="N239" s="3" t="n"/>
       <c r="O239">
-        <f>IFERROR(INT((A239-1-VLOOKUP(D239,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A239-2-VLOOKUP(D239,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="N240" s="3" t="n"/>
       <c r="O240">
-        <f>IFERROR(INT((A240-1-VLOOKUP(D240,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A240-2-VLOOKUP(D240,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="N241" s="3" t="n"/>
       <c r="O241">
-        <f>IFERROR(INT((A241-1-VLOOKUP(D241,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A241-2-VLOOKUP(D241,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="N242" s="3" t="n"/>
       <c r="O242">
-        <f>IFERROR(INT((A242-1-VLOOKUP(D242,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A242-2-VLOOKUP(D242,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="N243" s="3" t="n"/>
       <c r="O243">
-        <f>IFERROR(INT((A243-1-VLOOKUP(D243,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A243-2-VLOOKUP(D243,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="N244" s="3" t="n"/>
       <c r="O244">
-        <f>IFERROR(INT((A244-1-VLOOKUP(D244,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A244-2-VLOOKUP(D244,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="N245" s="3" t="n"/>
       <c r="O245">
-        <f>IFERROR(INT((A245-1-VLOOKUP(D245,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A245-2-VLOOKUP(D245,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N246" s="3" t="n"/>
       <c r="O246">
-        <f>IFERROR(INT((A246-1-VLOOKUP(D246,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A246-2-VLOOKUP(D246,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="N247" s="3" t="n"/>
       <c r="O247">
-        <f>IFERROR(INT((A247-1-VLOOKUP(D247,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A247-2-VLOOKUP(D247,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="N248" s="3" t="n"/>
       <c r="O248">
-        <f>IFERROR(INT((A248-1-VLOOKUP(D248,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A248-2-VLOOKUP(D248,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="N249" s="3" t="n"/>
       <c r="O249">
-        <f>IFERROR(INT((A249-1-VLOOKUP(D249,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A249-2-VLOOKUP(D249,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="N250" s="3" t="n"/>
       <c r="O250">
-        <f>IFERROR(INT((A250-1-VLOOKUP(D250,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A250-2-VLOOKUP(D250,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="N251" s="3" t="n"/>
       <c r="O251">
-        <f>IFERROR(INT((A251-1-VLOOKUP(D251,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A251-2-VLOOKUP(D251,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="N252" s="3" t="n"/>
       <c r="O252">
-        <f>IFERROR(INT((A252-1-VLOOKUP(D252,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A252-2-VLOOKUP(D252,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="N253" s="3" t="n"/>
       <c r="O253">
-        <f>IFERROR(INT((A253-1-VLOOKUP(D253,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A253-2-VLOOKUP(D253,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="N254" s="3" t="n"/>
       <c r="O254">
-        <f>IFERROR(INT((A254-1-VLOOKUP(D254,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A254-2-VLOOKUP(D254,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="N255" s="3" t="n"/>
       <c r="O255">
-        <f>IFERROR(INT((A255-1-VLOOKUP(D255,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A255-2-VLOOKUP(D255,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="N256" s="3" t="n"/>
       <c r="O256">
-        <f>IFERROR(INT((A256-1-VLOOKUP(D256,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A256-2-VLOOKUP(D256,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="N257" s="3" t="n"/>
       <c r="O257">
-        <f>IFERROR(INT((A257-1-VLOOKUP(D257,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A257-2-VLOOKUP(D257,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="N258" s="3" t="n"/>
       <c r="O258">
-        <f>IFERROR(INT((A258-1-VLOOKUP(D258,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A258-2-VLOOKUP(D258,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="N259" s="3" t="n"/>
       <c r="O259">
-        <f>IFERROR(INT((A259-1-VLOOKUP(D259,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A259-2-VLOOKUP(D259,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="N260" s="3" t="n"/>
       <c r="O260">
-        <f>IFERROR(INT((A260-1-VLOOKUP(D260,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A260-2-VLOOKUP(D260,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="N261" s="3" t="n"/>
       <c r="O261">
-        <f>IFERROR(INT((A261-1-VLOOKUP(D261,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A261-2-VLOOKUP(D261,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="N262" s="3" t="n"/>
       <c r="O262">
-        <f>IFERROR(INT((A262-1-VLOOKUP(D262,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A262-2-VLOOKUP(D262,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="N263" s="3" t="n"/>
       <c r="O263">
-        <f>IFERROR(INT((A263-1-VLOOKUP(D263,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A263-2-VLOOKUP(D263,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="N264" s="3" t="n"/>
       <c r="O264">
-        <f>IFERROR(INT((A264-1-VLOOKUP(D264,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A264-2-VLOOKUP(D264,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="N265" s="3" t="n"/>
       <c r="O265">
-        <f>IFERROR(INT((A265-1-VLOOKUP(D265,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A265-2-VLOOKUP(D265,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="N266" s="3" t="n"/>
       <c r="O266">
-        <f>IFERROR(INT((A266-1-VLOOKUP(D266,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A266-2-VLOOKUP(D266,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="N267" s="3" t="n"/>
       <c r="O267">
-        <f>IFERROR(INT((A267-1-VLOOKUP(D267,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A267-2-VLOOKUP(D267,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="N268" s="3" t="n"/>
       <c r="O268">
-        <f>IFERROR(INT((A268-1-VLOOKUP(D268,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A268-2-VLOOKUP(D268,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="N269" s="3" t="n"/>
       <c r="O269">
-        <f>IFERROR(INT((A269-1-VLOOKUP(D269,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A269-2-VLOOKUP(D269,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="N270" s="3" t="n"/>
       <c r="O270">
-        <f>IFERROR(INT((A270-1-VLOOKUP(D270,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A270-2-VLOOKUP(D270,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="N271" s="3" t="n"/>
       <c r="O271">
-        <f>IFERROR(INT((A271-1-VLOOKUP(D271,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A271-2-VLOOKUP(D271,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="N272" s="3" t="n"/>
       <c r="O272">
-        <f>IFERROR(INT((A272-1-VLOOKUP(D272,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A272-2-VLOOKUP(D272,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="N273" s="3" t="n"/>
       <c r="O273">
-        <f>IFERROR(INT((A273-1-VLOOKUP(D273,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A273-2-VLOOKUP(D273,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="N274" s="3" t="n"/>
       <c r="O274">
-        <f>IFERROR(INT((A274-1-VLOOKUP(D274,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A274-2-VLOOKUP(D274,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="N275" s="3" t="n"/>
       <c r="O275">
-        <f>IFERROR(INT((A275-1-VLOOKUP(D275,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A275-2-VLOOKUP(D275,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="N276" s="3" t="n"/>
       <c r="O276">
-        <f>IFERROR(INT((A276-1-VLOOKUP(D276,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A276-2-VLOOKUP(D276,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="N277" s="3" t="n"/>
       <c r="O277">
-        <f>IFERROR(INT((A277-1-VLOOKUP(D277,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A277-2-VLOOKUP(D277,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="N278" s="3" t="n"/>
       <c r="O278">
-        <f>IFERROR(INT((A278-1-VLOOKUP(D278,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A278-2-VLOOKUP(D278,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="N279" s="3" t="n"/>
       <c r="O279">
-        <f>IFERROR(INT((A279-1-VLOOKUP(D279,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A279-2-VLOOKUP(D279,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="N280" s="3" t="n"/>
       <c r="O280">
-        <f>IFERROR(INT((A280-1-VLOOKUP(D280,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A280-2-VLOOKUP(D280,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="N281" s="3" t="n"/>
       <c r="O281">
-        <f>IFERROR(INT((A281-1-VLOOKUP(D281,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A281-2-VLOOKUP(D281,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="N282" s="3" t="n"/>
       <c r="O282">
-        <f>IFERROR(INT((A282-1-VLOOKUP(D282,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A282-2-VLOOKUP(D282,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="N283" s="3" t="n"/>
       <c r="O283">
-        <f>IFERROR(INT((A283-1-VLOOKUP(D283,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A283-2-VLOOKUP(D283,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="N284" s="3" t="n"/>
       <c r="O284">
-        <f>IFERROR(INT((A284-1-VLOOKUP(D284,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A284-2-VLOOKUP(D284,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="N285" s="3" t="n"/>
       <c r="O285">
-        <f>IFERROR(INT((A285-1-VLOOKUP(D285,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A285-2-VLOOKUP(D285,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="N286" s="3" t="n"/>
       <c r="O286">
-        <f>IFERROR(INT((A286-1-VLOOKUP(D286,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A286-2-VLOOKUP(D286,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="N287" s="3" t="n"/>
       <c r="O287">
-        <f>IFERROR(INT((A287-1-VLOOKUP(D287,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A287-2-VLOOKUP(D287,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="N288" s="3" t="n"/>
       <c r="O288">
-        <f>IFERROR(INT((A288-1-VLOOKUP(D288,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A288-2-VLOOKUP(D288,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="N289" s="3" t="n"/>
       <c r="O289">
-        <f>IFERROR(INT((A289-1-VLOOKUP(D289,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A289-2-VLOOKUP(D289,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="N290" s="3" t="n"/>
       <c r="O290">
-        <f>IFERROR(INT((A290-1-VLOOKUP(D290,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A290-2-VLOOKUP(D290,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="N291" s="3" t="n"/>
       <c r="O291">
-        <f>IFERROR(INT((A291-1-VLOOKUP(D291,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A291-2-VLOOKUP(D291,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="N292" s="3" t="n"/>
       <c r="O292">
-        <f>IFERROR(INT((A292-1-VLOOKUP(D292,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A292-2-VLOOKUP(D292,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="N293" s="3" t="n"/>
       <c r="O293">
-        <f>IFERROR(INT((A293-1-VLOOKUP(D293,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A293-2-VLOOKUP(D293,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="N294" s="3" t="n"/>
       <c r="O294">
-        <f>IFERROR(INT((A294-1-VLOOKUP(D294,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A294-2-VLOOKUP(D294,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="N295" s="3" t="n"/>
       <c r="O295">
-        <f>IFERROR(INT((A295-1-VLOOKUP(D295,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A295-2-VLOOKUP(D295,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="N296" s="3" t="n"/>
       <c r="O296">
-        <f>IFERROR(INT((A296-1-VLOOKUP(D296,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A296-2-VLOOKUP(D296,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="N297" s="3" t="n"/>
       <c r="O297">
-        <f>IFERROR(INT((A297-1-VLOOKUP(D297,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A297-2-VLOOKUP(D297,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="N298" s="3" t="n"/>
       <c r="O298">
-        <f>IFERROR(INT((A298-1-VLOOKUP(D298,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A298-2-VLOOKUP(D298,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="N299" s="3" t="n"/>
       <c r="O299">
-        <f>IFERROR(INT((A299-1-VLOOKUP(D299,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A299-2-VLOOKUP(D299,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="N300" s="3" t="n"/>
       <c r="O300">
-        <f>IFERROR(INT((A300-1-VLOOKUP(D300,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A300-2-VLOOKUP(D300,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="N301" s="3" t="n"/>
       <c r="O301">
-        <f>IFERROR(INT((A301-1-VLOOKUP(D301,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A301-2-VLOOKUP(D301,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="N302" s="3" t="n"/>
       <c r="O302">
-        <f>IFERROR(INT((A302-1-VLOOKUP(D302,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A302-2-VLOOKUP(D302,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="N303" s="3" t="n"/>
       <c r="O303">
-        <f>IFERROR(INT((A303-1-VLOOKUP(D303,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A303-2-VLOOKUP(D303,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="N304" s="3" t="n"/>
       <c r="O304">
-        <f>IFERROR(INT((A304-1-VLOOKUP(D304,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A304-2-VLOOKUP(D304,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="N305" s="3" t="n"/>
       <c r="O305">
-        <f>IFERROR(INT((A305-1-VLOOKUP(D305,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A305-2-VLOOKUP(D305,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="N306" s="3" t="n"/>
       <c r="O306">
-        <f>IFERROR(INT((A306-1-VLOOKUP(D306,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A306-2-VLOOKUP(D306,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="N307" s="3" t="n"/>
       <c r="O307">
-        <f>IFERROR(INT((A307-1-VLOOKUP(D307,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A307-2-VLOOKUP(D307,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="N308" s="3" t="n"/>
       <c r="O308">
-        <f>IFERROR(INT((A308-1-VLOOKUP(D308,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A308-2-VLOOKUP(D308,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="N309" s="3" t="n"/>
       <c r="O309">
-        <f>IFERROR(INT((A309-1-VLOOKUP(D309,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A309-2-VLOOKUP(D309,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="N310" s="3" t="n"/>
       <c r="O310">
-        <f>IFERROR(INT((A310-1-VLOOKUP(D310,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A310-2-VLOOKUP(D310,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="N311" s="3" t="n"/>
       <c r="O311">
-        <f>IFERROR(INT((A311-1-VLOOKUP(D311,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A311-2-VLOOKUP(D311,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="N312" s="3" t="n"/>
       <c r="O312">
-        <f>IFERROR(INT((A312-1-VLOOKUP(D312,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A312-2-VLOOKUP(D312,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="N313" s="3" t="n"/>
       <c r="O313">
-        <f>IFERROR(INT((A313-1-VLOOKUP(D313,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A313-2-VLOOKUP(D313,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="N314" s="3" t="n"/>
       <c r="O314">
-        <f>IFERROR(INT((A314-1-VLOOKUP(D314,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A314-2-VLOOKUP(D314,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N315" s="3" t="n"/>
       <c r="O315">
-        <f>IFERROR(INT((A315-1-VLOOKUP(D315,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A315-2-VLOOKUP(D315,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="N316" s="3" t="n"/>
       <c r="O316">
-        <f>IFERROR(INT((A316-1-VLOOKUP(D316,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A316-2-VLOOKUP(D316,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="N317" s="3" t="n"/>
       <c r="O317">
-        <f>IFERROR(INT((A317-1-VLOOKUP(D317,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A317-2-VLOOKUP(D317,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="N318" s="3" t="n"/>
       <c r="O318">
-        <f>IFERROR(INT((A318-1-VLOOKUP(D318,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A318-2-VLOOKUP(D318,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="N319" s="3" t="n"/>
       <c r="O319">
-        <f>IFERROR(INT((A319-1-VLOOKUP(D319,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A319-2-VLOOKUP(D319,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="N320" s="3" t="n"/>
       <c r="O320">
-        <f>IFERROR(INT((A320-1-VLOOKUP(D320,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A320-2-VLOOKUP(D320,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="N321" s="3" t="n"/>
       <c r="O321">
-        <f>IFERROR(INT((A321-1-VLOOKUP(D321,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A321-2-VLOOKUP(D321,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="N322" s="3" t="n"/>
       <c r="O322">
-        <f>IFERROR(INT((A322-1-VLOOKUP(D322,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A322-2-VLOOKUP(D322,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="N323" s="3" t="n"/>
       <c r="O323">
-        <f>IFERROR(INT((A323-1-VLOOKUP(D323,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A323-2-VLOOKUP(D323,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="N324" s="3" t="n"/>
       <c r="O324">
-        <f>IFERROR(INT((A324-1-VLOOKUP(D324,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A324-2-VLOOKUP(D324,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="N325" s="3" t="n"/>
       <c r="O325">
-        <f>IFERROR(INT((A325-1-VLOOKUP(D325,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A325-2-VLOOKUP(D325,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="N326" s="3" t="n"/>
       <c r="O326">
-        <f>IFERROR(INT((A326-1-VLOOKUP(D326,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A326-2-VLOOKUP(D326,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="N327" s="3" t="n"/>
       <c r="O327">
-        <f>IFERROR(INT((A327-1-VLOOKUP(D327,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A327-2-VLOOKUP(D327,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="N328" s="3" t="n"/>
       <c r="O328">
-        <f>IFERROR(INT((A328-1-VLOOKUP(D328,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A328-2-VLOOKUP(D328,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="N329" s="3" t="n"/>
       <c r="O329">
-        <f>IFERROR(INT((A329-1-VLOOKUP(D329,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A329-2-VLOOKUP(D329,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="N330" s="3" t="n"/>
       <c r="O330">
-        <f>IFERROR(INT((A330-1-VLOOKUP(D330,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A330-2-VLOOKUP(D330,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="N331" s="3" t="n"/>
       <c r="O331">
-        <f>IFERROR(INT((A331-1-VLOOKUP(D331,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A331-2-VLOOKUP(D331,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="N332" s="3" t="n"/>
       <c r="O332">
-        <f>IFERROR(INT((A332-1-VLOOKUP(D332,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A332-2-VLOOKUP(D332,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="N333" s="3" t="n"/>
       <c r="O333">
-        <f>IFERROR(INT((A333-1-VLOOKUP(D333,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A333-2-VLOOKUP(D333,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="N334" s="3" t="n"/>
       <c r="O334">
-        <f>IFERROR(INT((A334-1-VLOOKUP(D334,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A334-2-VLOOKUP(D334,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="N335" s="3" t="n"/>
       <c r="O335">
-        <f>IFERROR(INT((A335-1-VLOOKUP(D335,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A335-2-VLOOKUP(D335,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="N336" s="3" t="n"/>
       <c r="O336">
-        <f>IFERROR(INT((A336-1-VLOOKUP(D336,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A336-2-VLOOKUP(D336,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="N337" s="3" t="n"/>
       <c r="O337">
-        <f>IFERROR(INT((A337-1-VLOOKUP(D337,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A337-2-VLOOKUP(D337,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="N338" s="3" t="n"/>
       <c r="O338">
-        <f>IFERROR(INT((A338-1-VLOOKUP(D338,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A338-2-VLOOKUP(D338,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="N339" s="3" t="n"/>
       <c r="O339">
-        <f>IFERROR(INT((A339-1-VLOOKUP(D339,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A339-2-VLOOKUP(D339,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="N340" s="3" t="n"/>
       <c r="O340">
-        <f>IFERROR(INT((A340-1-VLOOKUP(D340,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A340-2-VLOOKUP(D340,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="N341" s="3" t="n"/>
       <c r="O341">
-        <f>IFERROR(INT((A341-1-VLOOKUP(D341,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A341-2-VLOOKUP(D341,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="N342" s="3" t="n"/>
       <c r="O342">
-        <f>IFERROR(INT((A342-1-VLOOKUP(D342,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A342-2-VLOOKUP(D342,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="N343" s="3" t="n"/>
       <c r="O343">
-        <f>IFERROR(INT((A343-1-VLOOKUP(D343,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A343-2-VLOOKUP(D343,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="N344" s="3" t="n"/>
       <c r="O344">
-        <f>IFERROR(INT((A344-1-VLOOKUP(D344,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A344-2-VLOOKUP(D344,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="N345" s="3" t="n"/>
       <c r="O345">
-        <f>IFERROR(INT((A345-1-VLOOKUP(D345,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A345-2-VLOOKUP(D345,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="N346" s="3" t="n"/>
       <c r="O346">
-        <f>IFERROR(INT((A346-1-VLOOKUP(D346,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A346-2-VLOOKUP(D346,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="N347" s="3" t="n"/>
       <c r="O347">
-        <f>IFERROR(INT((A347-1-VLOOKUP(D347,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A347-2-VLOOKUP(D347,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="N348" s="3" t="n"/>
       <c r="O348">
-        <f>IFERROR(INT((A348-1-VLOOKUP(D348,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A348-2-VLOOKUP(D348,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="N349" s="3" t="n"/>
       <c r="O349">
-        <f>IFERROR(INT((A349-1-VLOOKUP(D349,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A349-2-VLOOKUP(D349,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="N350" s="3" t="n"/>
       <c r="O350">
-        <f>IFERROR(INT((A350-1-VLOOKUP(D350,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A350-2-VLOOKUP(D350,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="N351" s="3" t="n"/>
       <c r="O351">
-        <f>IFERROR(INT((A351-1-VLOOKUP(D351,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A351-2-VLOOKUP(D351,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="N352" s="3" t="n"/>
       <c r="O352">
-        <f>IFERROR(INT((A352-1-VLOOKUP(D352,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A352-2-VLOOKUP(D352,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="N353" s="3" t="n"/>
       <c r="O353">
-        <f>IFERROR(INT((A353-1-VLOOKUP(D353,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A353-2-VLOOKUP(D353,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="N354" s="3" t="n"/>
       <c r="O354">
-        <f>IFERROR(INT((A354-1-VLOOKUP(D354,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A354-2-VLOOKUP(D354,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="N355" s="3" t="n"/>
       <c r="O355">
-        <f>IFERROR(INT((A355-1-VLOOKUP(D355,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A355-2-VLOOKUP(D355,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="N356" s="3" t="n"/>
       <c r="O356">
-        <f>IFERROR(INT((A356-1-VLOOKUP(D356,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A356-2-VLOOKUP(D356,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="N357" s="3" t="n"/>
       <c r="O357">
-        <f>IFERROR(INT((A357-1-VLOOKUP(D357,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A357-2-VLOOKUP(D357,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="N358" s="3" t="n"/>
       <c r="O358">
-        <f>IFERROR(INT((A358-1-VLOOKUP(D358,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A358-2-VLOOKUP(D358,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="N359" s="3" t="n"/>
       <c r="O359">
-        <f>IFERROR(INT((A359-1-VLOOKUP(D359,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A359-2-VLOOKUP(D359,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="N360" s="3" t="n"/>
       <c r="O360">
-        <f>IFERROR(INT((A360-1-VLOOKUP(D360,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A360-2-VLOOKUP(D360,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="N361" s="3" t="n"/>
       <c r="O361">
-        <f>IFERROR(INT((A361-1-VLOOKUP(D361,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A361-2-VLOOKUP(D361,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="N362" s="3" t="n"/>
       <c r="O362">
-        <f>IFERROR(INT((A362-1-VLOOKUP(D362,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A362-2-VLOOKUP(D362,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="N363" s="3" t="n"/>
       <c r="O363">
-        <f>IFERROR(INT((A363-1-VLOOKUP(D363,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A363-2-VLOOKUP(D363,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="N364" s="3" t="n"/>
       <c r="O364">
-        <f>IFERROR(INT((A364-1-VLOOKUP(D364,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A364-2-VLOOKUP(D364,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="N365" s="3" t="n"/>
       <c r="O365">
-        <f>IFERROR(INT((A365-1-VLOOKUP(D365,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A365-2-VLOOKUP(D365,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="N366" s="3" t="n"/>
       <c r="O366">
-        <f>IFERROR(INT((A366-1-VLOOKUP(D366,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A366-2-VLOOKUP(D366,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="N367" s="3" t="n"/>
       <c r="O367">
-        <f>IFERROR(INT((A367-1-VLOOKUP(D367,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A367-2-VLOOKUP(D367,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="N368" s="3" t="n"/>
       <c r="O368">
-        <f>IFERROR(INT((A368-1-VLOOKUP(D368,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A368-2-VLOOKUP(D368,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="N369" s="3" t="n"/>
       <c r="O369">
-        <f>IFERROR(INT((A369-1-VLOOKUP(D369,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A369-2-VLOOKUP(D369,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="N370" s="3" t="n"/>
       <c r="O370">
-        <f>IFERROR(INT((A370-1-VLOOKUP(D370,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A370-2-VLOOKUP(D370,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="N371" s="3" t="n"/>
       <c r="O371">
-        <f>IFERROR(INT((A371-1-VLOOKUP(D371,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A371-2-VLOOKUP(D371,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10854,7 +10854,7 @@
       </c>
       <c r="N372" s="3" t="n"/>
       <c r="O372">
-        <f>IFERROR(INT((A372-1-VLOOKUP(D372,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A372-2-VLOOKUP(D372,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="N373" s="3" t="n"/>
       <c r="O373">
-        <f>IFERROR(INT((A373-1-VLOOKUP(D373,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A373-2-VLOOKUP(D373,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="N374" s="3" t="n"/>
       <c r="O374">
-        <f>IFERROR(INT((A374-1-VLOOKUP(D374,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A374-2-VLOOKUP(D374,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="N375" s="3" t="n"/>
       <c r="O375">
-        <f>IFERROR(INT((A375-1-VLOOKUP(D375,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A375-2-VLOOKUP(D375,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       </c>
       <c r="N376" s="3" t="n"/>
       <c r="O376">
-        <f>IFERROR(INT((A376-1-VLOOKUP(D376,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A376-2-VLOOKUP(D376,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="N377" s="3" t="n"/>
       <c r="O377">
-        <f>IFERROR(INT((A377-1-VLOOKUP(D377,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A377-2-VLOOKUP(D377,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="N378" s="3" t="n"/>
       <c r="O378">
-        <f>IFERROR(INT((A378-1-VLOOKUP(D378,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A378-2-VLOOKUP(D378,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="N379" s="3" t="n"/>
       <c r="O379">
-        <f>IFERROR(INT((A379-1-VLOOKUP(D379,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A379-2-VLOOKUP(D379,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="N380" s="3" t="n"/>
       <c r="O380">
-        <f>IFERROR(INT((A380-1-VLOOKUP(D380,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A380-2-VLOOKUP(D380,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="N381" s="3" t="n"/>
       <c r="O381">
-        <f>IFERROR(INT((A381-1-VLOOKUP(D381,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A381-2-VLOOKUP(D381,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="N382" s="3" t="n"/>
       <c r="O382">
-        <f>IFERROR(INT((A382-1-VLOOKUP(D382,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A382-2-VLOOKUP(D382,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="N383" s="3" t="n"/>
       <c r="O383">
-        <f>IFERROR(INT((A383-1-VLOOKUP(D383,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A383-2-VLOOKUP(D383,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="N384" s="3" t="n"/>
       <c r="O384">
-        <f>IFERROR(INT((A384-1-VLOOKUP(D384,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A384-2-VLOOKUP(D384,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="N385" s="3" t="n"/>
       <c r="O385">
-        <f>IFERROR(INT((A385-1-VLOOKUP(D385,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A385-2-VLOOKUP(D385,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="N386" s="3" t="n"/>
       <c r="O386">
-        <f>IFERROR(INT((A386-1-VLOOKUP(D386,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A386-2-VLOOKUP(D386,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="N387" s="3" t="n"/>
       <c r="O387">
-        <f>IFERROR(INT((A387-1-VLOOKUP(D387,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A387-2-VLOOKUP(D387,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="N388" s="3" t="n"/>
       <c r="O388">
-        <f>IFERROR(INT((A388-1-VLOOKUP(D388,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A388-2-VLOOKUP(D388,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="N389" s="3" t="n"/>
       <c r="O389">
-        <f>IFERROR(INT((A389-1-VLOOKUP(D389,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A389-2-VLOOKUP(D389,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="N390" s="3" t="n"/>
       <c r="O390">
-        <f>IFERROR(INT((A390-1-VLOOKUP(D390,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A390-2-VLOOKUP(D390,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="N391" s="3" t="n"/>
       <c r="O391">
-        <f>IFERROR(INT((A391-1-VLOOKUP(D391,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A391-2-VLOOKUP(D391,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="N392" s="3" t="n"/>
       <c r="O392">
-        <f>IFERROR(INT((A392-1-VLOOKUP(D392,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A392-2-VLOOKUP(D392,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="N393" s="3" t="n"/>
       <c r="O393">
-        <f>IFERROR(INT((A393-1-VLOOKUP(D393,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A393-2-VLOOKUP(D393,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="N394" s="3" t="n"/>
       <c r="O394">
-        <f>IFERROR(INT((A394-1-VLOOKUP(D394,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A394-2-VLOOKUP(D394,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="N395" s="3" t="n"/>
       <c r="O395">
-        <f>IFERROR(INT((A395-1-VLOOKUP(D395,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A395-2-VLOOKUP(D395,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="N396" s="3" t="n"/>
       <c r="O396">
-        <f>IFERROR(INT((A396-1-VLOOKUP(D396,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A396-2-VLOOKUP(D396,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="N397" s="3" t="n"/>
       <c r="O397">
-        <f>IFERROR(INT((A397-1-VLOOKUP(D397,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A397-2-VLOOKUP(D397,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="N398" s="3" t="n"/>
       <c r="O398">
-        <f>IFERROR(INT((A398-1-VLOOKUP(D398,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A398-2-VLOOKUP(D398,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="N399" s="3" t="n"/>
       <c r="O399">
-        <f>IFERROR(INT((A399-1-VLOOKUP(D399,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A399-2-VLOOKUP(D399,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="N400" s="3" t="n"/>
       <c r="O400">
-        <f>IFERROR(INT((A400-1-VLOOKUP(D400,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A400-2-VLOOKUP(D400,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="N401" s="3" t="n"/>
       <c r="O401">
-        <f>IFERROR(INT((A401-1-VLOOKUP(D401,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A401-2-VLOOKUP(D401,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="N402" s="3" t="n"/>
       <c r="O402">
-        <f>IFERROR(INT((A402-1-VLOOKUP(D402,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A402-2-VLOOKUP(D402,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N403" s="3" t="n"/>
       <c r="O403">
-        <f>IFERROR(INT((A403-1-VLOOKUP(D403,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A403-2-VLOOKUP(D403,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="N404" s="3" t="n"/>
       <c r="O404">
-        <f>IFERROR(INT((A404-1-VLOOKUP(D404,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A404-2-VLOOKUP(D404,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="N405" s="3" t="n"/>
       <c r="O405">
-        <f>IFERROR(INT((A405-1-VLOOKUP(D405,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A405-2-VLOOKUP(D405,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="N406" s="3" t="n"/>
       <c r="O406">
-        <f>IFERROR(INT((A406-1-VLOOKUP(D406,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A406-2-VLOOKUP(D406,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="N407" s="3" t="n"/>
       <c r="O407">
-        <f>IFERROR(INT((A407-1-VLOOKUP(D407,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A407-2-VLOOKUP(D407,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="N408" s="3" t="n"/>
       <c r="O408">
-        <f>IFERROR(INT((A408-1-VLOOKUP(D408,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A408-2-VLOOKUP(D408,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="N409" s="3" t="n"/>
       <c r="O409">
-        <f>IFERROR(INT((A409-1-VLOOKUP(D409,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A409-2-VLOOKUP(D409,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="N410" s="3" t="n"/>
       <c r="O410">
-        <f>IFERROR(INT((A410-1-VLOOKUP(D410,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A410-2-VLOOKUP(D410,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="N411" s="3" t="n"/>
       <c r="O411">
-        <f>IFERROR(INT((A411-1-VLOOKUP(D411,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A411-2-VLOOKUP(D411,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="N412" s="3" t="n"/>
       <c r="O412">
-        <f>IFERROR(INT((A412-1-VLOOKUP(D412,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A412-2-VLOOKUP(D412,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="N413" s="3" t="n"/>
       <c r="O413">
-        <f>IFERROR(INT((A413-1-VLOOKUP(D413,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A413-2-VLOOKUP(D413,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="N414" s="3" t="n"/>
       <c r="O414">
-        <f>IFERROR(INT((A414-1-VLOOKUP(D414,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A414-2-VLOOKUP(D414,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="N415" s="3" t="n"/>
       <c r="O415">
-        <f>IFERROR(INT((A415-1-VLOOKUP(D415,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A415-2-VLOOKUP(D415,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="N416" s="3" t="n"/>
       <c r="O416">
-        <f>IFERROR(INT((A416-1-VLOOKUP(D416,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A416-2-VLOOKUP(D416,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="N417" s="3" t="n"/>
       <c r="O417">
-        <f>IFERROR(INT((A417-1-VLOOKUP(D417,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A417-2-VLOOKUP(D417,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="N418" s="3" t="n"/>
       <c r="O418">
-        <f>IFERROR(INT((A418-1-VLOOKUP(D418,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A418-2-VLOOKUP(D418,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="N419" s="3" t="n"/>
       <c r="O419">
-        <f>IFERROR(INT((A419-1-VLOOKUP(D419,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A419-2-VLOOKUP(D419,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="N420" s="3" t="n"/>
       <c r="O420">
-        <f>IFERROR(INT((A420-1-VLOOKUP(D420,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A420-2-VLOOKUP(D420,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="N421" s="3" t="n"/>
       <c r="O421">
-        <f>IFERROR(INT((A421-1-VLOOKUP(D421,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A421-2-VLOOKUP(D421,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="N422" s="3" t="n"/>
       <c r="O422">
-        <f>IFERROR(INT((A422-1-VLOOKUP(D422,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A422-2-VLOOKUP(D422,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="N423" s="3" t="n"/>
       <c r="O423">
-        <f>IFERROR(INT((A423-1-VLOOKUP(D423,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A423-2-VLOOKUP(D423,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="N424" s="3" t="n"/>
       <c r="O424">
-        <f>IFERROR(INT((A424-1-VLOOKUP(D424,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A424-2-VLOOKUP(D424,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="N425" s="3" t="n"/>
       <c r="O425">
-        <f>IFERROR(INT((A425-1-VLOOKUP(D425,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A425-2-VLOOKUP(D425,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="N426" s="3" t="n"/>
       <c r="O426">
-        <f>IFERROR(INT((A426-1-VLOOKUP(D426,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A426-2-VLOOKUP(D426,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12339,7 +12339,7 @@
       </c>
       <c r="N427" s="3" t="n"/>
       <c r="O427">
-        <f>IFERROR(INT((A427-1-VLOOKUP(D427,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A427-2-VLOOKUP(D427,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="N428" s="3" t="n"/>
       <c r="O428">
-        <f>IFERROR(INT((A428-1-VLOOKUP(D428,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A428-2-VLOOKUP(D428,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="N429" s="3" t="n"/>
       <c r="O429">
-        <f>IFERROR(INT((A429-1-VLOOKUP(D429,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A429-2-VLOOKUP(D429,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="N430" s="3" t="n"/>
       <c r="O430">
-        <f>IFERROR(INT((A430-1-VLOOKUP(D430,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A430-2-VLOOKUP(D430,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12447,7 +12447,7 @@
       </c>
       <c r="N431" s="3" t="n"/>
       <c r="O431">
-        <f>IFERROR(INT((A431-1-VLOOKUP(D431,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A431-2-VLOOKUP(D431,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="N432" s="3" t="n"/>
       <c r="O432">
-        <f>IFERROR(INT((A432-1-VLOOKUP(D432,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A432-2-VLOOKUP(D432,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="N433" s="3" t="n"/>
       <c r="O433">
-        <f>IFERROR(INT((A433-1-VLOOKUP(D433,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A433-2-VLOOKUP(D433,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="N434" s="3" t="n"/>
       <c r="O434">
-        <f>IFERROR(INT((A434-1-VLOOKUP(D434,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A434-2-VLOOKUP(D434,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="N435" s="3" t="n"/>
       <c r="O435">
-        <f>IFERROR(INT((A435-1-VLOOKUP(D435,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A435-2-VLOOKUP(D435,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="N436" s="3" t="n"/>
       <c r="O436">
-        <f>IFERROR(INT((A436-1-VLOOKUP(D436,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A436-2-VLOOKUP(D436,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="N437" s="3" t="n"/>
       <c r="O437">
-        <f>IFERROR(INT((A437-1-VLOOKUP(D437,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A437-2-VLOOKUP(D437,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="N438" s="3" t="n"/>
       <c r="O438">
-        <f>IFERROR(INT((A438-1-VLOOKUP(D438,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A438-2-VLOOKUP(D438,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="N439" s="3" t="n"/>
       <c r="O439">
-        <f>IFERROR(INT((A439-1-VLOOKUP(D439,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A439-2-VLOOKUP(D439,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="N440" s="3" t="n"/>
       <c r="O440">
-        <f>IFERROR(INT((A440-1-VLOOKUP(D440,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A440-2-VLOOKUP(D440,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="N441" s="3" t="n"/>
       <c r="O441">
-        <f>IFERROR(INT((A441-1-VLOOKUP(D441,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A441-2-VLOOKUP(D441,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12744,7 +12744,7 @@
       </c>
       <c r="N442" s="3" t="n"/>
       <c r="O442">
-        <f>IFERROR(INT((A442-1-VLOOKUP(D442,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A442-2-VLOOKUP(D442,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="N443" s="3" t="n"/>
       <c r="O443">
-        <f>IFERROR(INT((A443-1-VLOOKUP(D443,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A443-2-VLOOKUP(D443,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="N444" s="3" t="n"/>
       <c r="O444">
-        <f>IFERROR(INT((A444-1-VLOOKUP(D444,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A444-2-VLOOKUP(D444,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="N445" s="3" t="n"/>
       <c r="O445">
-        <f>IFERROR(INT((A445-1-VLOOKUP(D445,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A445-2-VLOOKUP(D445,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="N446" s="3" t="n"/>
       <c r="O446">
-        <f>IFERROR(INT((A446-1-VLOOKUP(D446,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A446-2-VLOOKUP(D446,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="N447" s="3" t="n"/>
       <c r="O447">
-        <f>IFERROR(INT((A447-1-VLOOKUP(D447,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A447-2-VLOOKUP(D447,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="N448" s="3" t="n"/>
       <c r="O448">
-        <f>IFERROR(INT((A448-1-VLOOKUP(D448,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A448-2-VLOOKUP(D448,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="N449" s="3" t="n"/>
       <c r="O449">
-        <f>IFERROR(INT((A449-1-VLOOKUP(D449,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A449-2-VLOOKUP(D449,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="N450" s="3" t="n"/>
       <c r="O450">
-        <f>IFERROR(INT((A450-1-VLOOKUP(D450,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A450-2-VLOOKUP(D450,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="N451" s="3" t="n"/>
       <c r="O451">
-        <f>IFERROR(INT((A451-1-VLOOKUP(D451,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A451-2-VLOOKUP(D451,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="N452" s="3" t="n"/>
       <c r="O452">
-        <f>IFERROR(INT((A452-1-VLOOKUP(D452,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A452-2-VLOOKUP(D452,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="N453" s="3" t="n"/>
       <c r="O453">
-        <f>IFERROR(INT((A453-1-VLOOKUP(D453,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A453-2-VLOOKUP(D453,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
       </c>
       <c r="N454" s="3" t="n"/>
       <c r="O454">
-        <f>IFERROR(INT((A454-1-VLOOKUP(D454,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A454-2-VLOOKUP(D454,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="N455" s="3" t="n"/>
       <c r="O455">
-        <f>IFERROR(INT((A455-1-VLOOKUP(D455,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A455-2-VLOOKUP(D455,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="N456" s="3" t="n"/>
       <c r="O456">
-        <f>IFERROR(INT((A456-1-VLOOKUP(D456,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A456-2-VLOOKUP(D456,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="N457" s="3" t="n"/>
       <c r="O457">
-        <f>IFERROR(INT((A457-1-VLOOKUP(D457,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A457-2-VLOOKUP(D457,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="N458" s="3" t="n"/>
       <c r="O458">
-        <f>IFERROR(INT((A458-1-VLOOKUP(D458,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A458-2-VLOOKUP(D458,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="N459" s="3" t="n"/>
       <c r="O459">
-        <f>IFERROR(INT((A459-1-VLOOKUP(D459,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A459-2-VLOOKUP(D459,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="N460" s="3" t="n"/>
       <c r="O460">
-        <f>IFERROR(INT((A460-1-VLOOKUP(D460,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A460-2-VLOOKUP(D460,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="N461" s="3" t="n"/>
       <c r="O461">
-        <f>IFERROR(INT((A461-1-VLOOKUP(D461,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A461-2-VLOOKUP(D461,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="N462" s="3" t="n"/>
       <c r="O462">
-        <f>IFERROR(INT((A462-1-VLOOKUP(D462,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A462-2-VLOOKUP(D462,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="N463" s="3" t="n"/>
       <c r="O463">
-        <f>IFERROR(INT((A463-1-VLOOKUP(D463,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A463-2-VLOOKUP(D463,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="N464" s="3" t="n"/>
       <c r="O464">
-        <f>IFERROR(INT((A464-1-VLOOKUP(D464,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A464-2-VLOOKUP(D464,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="N465" s="3" t="n"/>
       <c r="O465">
-        <f>IFERROR(INT((A465-1-VLOOKUP(D465,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A465-2-VLOOKUP(D465,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="N466" s="3" t="n"/>
       <c r="O466">
-        <f>IFERROR(INT((A466-1-VLOOKUP(D466,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A466-2-VLOOKUP(D466,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="N467" s="3" t="n"/>
       <c r="O467">
-        <f>IFERROR(INT((A467-1-VLOOKUP(D467,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A467-2-VLOOKUP(D467,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="N468" s="3" t="n"/>
       <c r="O468">
-        <f>IFERROR(INT((A468-1-VLOOKUP(D468,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A468-2-VLOOKUP(D468,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="N469" s="3" t="n"/>
       <c r="O469">
-        <f>IFERROR(INT((A469-1-VLOOKUP(D469,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A469-2-VLOOKUP(D469,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="N470" s="3" t="n"/>
       <c r="O470">
-        <f>IFERROR(INT((A470-1-VLOOKUP(D470,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A470-2-VLOOKUP(D470,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="N471" s="3" t="n"/>
       <c r="O471">
-        <f>IFERROR(INT((A471-1-VLOOKUP(D471,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A471-2-VLOOKUP(D471,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="N472" s="3" t="n"/>
       <c r="O472">
-        <f>IFERROR(INT((A472-1-VLOOKUP(D472,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A472-2-VLOOKUP(D472,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="N473" s="3" t="n"/>
       <c r="O473">
-        <f>IFERROR(INT((A473-1-VLOOKUP(D473,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A473-2-VLOOKUP(D473,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="N474" s="3" t="n"/>
       <c r="O474">
-        <f>IFERROR(INT((A474-1-VLOOKUP(D474,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A474-2-VLOOKUP(D474,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="N475" s="3" t="n"/>
       <c r="O475">
-        <f>IFERROR(INT((A475-1-VLOOKUP(D475,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A475-2-VLOOKUP(D475,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="N476" s="3" t="n"/>
       <c r="O476">
-        <f>IFERROR(INT((A476-1-VLOOKUP(D476,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A476-2-VLOOKUP(D476,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="N477" s="3" t="n"/>
       <c r="O477">
-        <f>IFERROR(INT((A477-1-VLOOKUP(D477,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A477-2-VLOOKUP(D477,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="N478" s="3" t="n"/>
       <c r="O478">
-        <f>IFERROR(INT((A478-1-VLOOKUP(D478,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A478-2-VLOOKUP(D478,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="N479" s="3" t="n"/>
       <c r="O479">
-        <f>IFERROR(INT((A479-1-VLOOKUP(D479,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A479-2-VLOOKUP(D479,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="N480" s="3" t="n"/>
       <c r="O480">
-        <f>IFERROR(INT((A480-1-VLOOKUP(D480,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A480-2-VLOOKUP(D480,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="N481" s="3" t="n"/>
       <c r="O481">
-        <f>IFERROR(INT((A481-1-VLOOKUP(D481,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A481-2-VLOOKUP(D481,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="N482" s="3" t="n"/>
       <c r="O482">
-        <f>IFERROR(INT((A482-1-VLOOKUP(D482,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A482-2-VLOOKUP(D482,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13851,7 +13851,7 @@
       </c>
       <c r="N483" s="3" t="n"/>
       <c r="O483">
-        <f>IFERROR(INT((A483-1-VLOOKUP(D483,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A483-2-VLOOKUP(D483,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="N484" s="3" t="n"/>
       <c r="O484">
-        <f>IFERROR(INT((A484-1-VLOOKUP(D484,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A484-2-VLOOKUP(D484,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="N485" s="3" t="n"/>
       <c r="O485">
-        <f>IFERROR(INT((A485-1-VLOOKUP(D485,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A485-2-VLOOKUP(D485,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="N486" s="3" t="n"/>
       <c r="O486">
-        <f>IFERROR(INT((A486-1-VLOOKUP(D486,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A486-2-VLOOKUP(D486,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="N487" s="3" t="n"/>
       <c r="O487">
-        <f>IFERROR(INT((A487-1-VLOOKUP(D487,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A487-2-VLOOKUP(D487,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="N488" s="3" t="n"/>
       <c r="O488">
-        <f>IFERROR(INT((A488-1-VLOOKUP(D488,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A488-2-VLOOKUP(D488,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="N489" s="3" t="n"/>
       <c r="O489">
-        <f>IFERROR(INT((A489-1-VLOOKUP(D489,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A489-2-VLOOKUP(D489,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="N490" s="3" t="n"/>
       <c r="O490">
-        <f>IFERROR(INT((A490-1-VLOOKUP(D490,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A490-2-VLOOKUP(D490,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="N491" s="3" t="n"/>
       <c r="O491">
-        <f>IFERROR(INT((A491-1-VLOOKUP(D491,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A491-2-VLOOKUP(D491,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="N492" s="3" t="n"/>
       <c r="O492">
-        <f>IFERROR(INT((A492-1-VLOOKUP(D492,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A492-2-VLOOKUP(D492,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="N493" s="3" t="n"/>
       <c r="O493">
-        <f>IFERROR(INT((A493-1-VLOOKUP(D493,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A493-2-VLOOKUP(D493,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="N494" s="3" t="n"/>
       <c r="O494">
-        <f>IFERROR(INT((A494-1-VLOOKUP(D494,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A494-2-VLOOKUP(D494,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="N495" s="3" t="n"/>
       <c r="O495">
-        <f>IFERROR(INT((A495-1-VLOOKUP(D495,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A495-2-VLOOKUP(D495,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="N496" s="3" t="n"/>
       <c r="O496">
-        <f>IFERROR(INT((A496-1-VLOOKUP(D496,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A496-2-VLOOKUP(D496,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="N497" s="3" t="n"/>
       <c r="O497">
-        <f>IFERROR(INT((A497-1-VLOOKUP(D497,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A497-2-VLOOKUP(D497,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="N498" s="3" t="n"/>
       <c r="O498">
-        <f>IFERROR(INT((A498-1-VLOOKUP(D498,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A498-2-VLOOKUP(D498,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="N499" s="3" t="n"/>
       <c r="O499">
-        <f>IFERROR(INT((A499-1-VLOOKUP(D499,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A499-2-VLOOKUP(D499,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="N500" s="3" t="n"/>
       <c r="O500">
-        <f>IFERROR(INT((A500-1-VLOOKUP(D500,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A500-2-VLOOKUP(D500,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
@@ -14337,7 +14337,7 @@
       </c>
       <c r="N501" s="3" t="n"/>
       <c r="O501">
-        <f>IFERROR(INT((A501-1-VLOOKUP(D501,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
+        <f>IFERROR(INT((A501-2-VLOOKUP(D501,'Flock Reference'!$A:$B,2,FALSE))/7), "")</f>
         <v/>
       </c>
     </row>
